--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H2">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3103893333333334</v>
+        <v>0.464324</v>
       </c>
       <c r="N2">
-        <v>0.931168</v>
+        <v>1.392972</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.068672999804445</v>
+        <v>9.476025414632</v>
       </c>
       <c r="R2">
-        <v>18.61805699824</v>
+        <v>85.28422873168799</v>
       </c>
       <c r="S2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="T2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>141.767772</v>
       </c>
       <c r="I3">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J3">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3103893333333334</v>
+        <v>0.464324</v>
       </c>
       <c r="N3">
-        <v>0.931168</v>
+        <v>1.392972</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>14.66773474641067</v>
+        <v>21.942059655376</v>
       </c>
       <c r="R3">
-        <v>132.009612717696</v>
+        <v>197.478536898384</v>
       </c>
       <c r="S3">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="T3">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H4">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I4">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J4">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3103893333333334</v>
+        <v>0.464324</v>
       </c>
       <c r="N4">
-        <v>0.931168</v>
+        <v>1.392972</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.496079777795556</v>
+        <v>39.61019565549199</v>
       </c>
       <c r="R4">
-        <v>76.46471800016</v>
+        <v>356.491760899428</v>
       </c>
       <c r="S4">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="T4">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H5">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I5">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J5">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3103893333333334</v>
+        <v>0.464324</v>
       </c>
       <c r="N5">
-        <v>0.931168</v>
+        <v>1.392972</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.514253713457778</v>
+        <v>14.45412272758533</v>
       </c>
       <c r="R5">
-        <v>58.62828342112</v>
+        <v>130.087104548268</v>
       </c>
       <c r="S5">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="T5">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
     </row>
   </sheetData>
